--- a/Results/simulation_results_poisson.xlsx
+++ b/Results/simulation_results_poisson.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Curso\RTEL\rtel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Curso\RTEL\rtel\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94F55F0-D4F0-41E4-8864-B7FD2A7CC3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF5291B-BC92-4965-B338-80FE014CCEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Total Calls</t>
   </si>
@@ -38,6 +51,9 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>Deviation</t>
   </si>
 </sst>
 </file>
@@ -91,16 +107,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -129,20 +160,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -156,11 +173,967 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$6:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3565095907170449E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1551964574865781E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8239955567015445E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7630594719780834E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8568742070210502E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4019707289515404E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1837632155634665E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9582428912854395E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7996597844508484E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D702-400D-B583-7B7490201873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="818523952"/>
+        <c:axId val="818525392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="818523952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818525392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="818525392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818523952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>602932</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298132</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27622</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA427AB1-5E82-E700-2BA2-EBCCA900260E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EF535DC-0432-44A3-939C-E67FA9218A25}" name="Table1" displayName="Table1" ref="A1:F28" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:F28" xr:uid="{4EF535DC-0432-44A3-939C-E67FA9218A25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-    <sortCondition ref="A1:A28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EF535DC-0432-44A3-939C-E67FA9218A25}" name="Table1" displayName="Table1" ref="A1:F46" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:F46" xr:uid="{4EF535DC-0432-44A3-939C-E67FA9218A25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
+    <sortCondition ref="A1:A46"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{91875251-8027-4BD0-92B5-36F83C9BA495}" name="Total Calls"/>
@@ -459,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +1447,7 @@
     <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>47</v>
       </c>
@@ -514,9 +1487,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -525,16 +1498,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1827169811320756</v>
+        <v>0.1989400000000002</v>
       </c>
       <c r="E3">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>53</v>
       </c>
@@ -554,309 +1527,423 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.1827169811320756</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.1564761904761906</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f>INT(AVERAGE(A2:A6))</f>
+        <v>53</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(D2:D6)</f>
+        <v>0.18643490409282956</v>
+      </c>
+      <c r="J6" s="2">
+        <f>ABS(0.2-I6)</f>
+        <v>1.3565095907170449E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>114</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.2172719298245615</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>50</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>133</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.18690225563909749</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>133</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.18784962406015049</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
       </c>
       <c r="F7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f>INT(AVERAGE(A7:A11))</f>
+        <v>128</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(D7:D11)</f>
+        <v>0.19384480354251343</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7:J14" si="0">ABS(0.2-I7)</f>
+        <v>6.1551964574865781E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>131</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.19042748091603029</v>
+      </c>
+      <c r="E8">
+        <v>350</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <f>INT(AVERAGE(A12:A16))</f>
+        <v>257</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(D12:D16)</f>
+        <v>0.19417600444329847</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8239955567015445E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>132</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.1867727272727274</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <f>INT(AVERAGE(A17:A21))</f>
+        <v>501</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(D17:D21)</f>
+        <v>0.1993236940528022</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7630594719780834E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>133</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.18690225563909749</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <f>INT(AVERAGE(A22:A26))</f>
+        <v>1219</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(D22:D26)</f>
+        <v>0.20485687420702106</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8568742070210502E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>133</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.18784962406015049</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <f>INT(AVERAGE(A27:A31))</f>
+        <v>2482</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(D27:D31)</f>
+        <v>0.20140197072895155</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4019707289515404E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>240</v>
       </c>
-      <c r="B8">
+      <c r="B12">
         <v>168</v>
       </c>
-      <c r="C8">
+      <c r="C12">
         <v>0.7</v>
       </c>
-      <c r="D8">
+      <c r="D12">
         <v>0.20707083333333351</v>
       </c>
-      <c r="E8">
+      <c r="E12">
         <v>50</v>
       </c>
-      <c r="F8">
+      <c r="F12">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="H12">
+        <f>INT(AVERAGE(A32:A36))</f>
+        <v>5002</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(D32:D36)</f>
+        <v>0.19991816236784438</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1837632155634665E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>243</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0.2056172839506174</v>
       </c>
-      <c r="E9">
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="F9">
+      <c r="F13">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="H13">
+        <f>INT(AVERAGE(A37:A41))</f>
+        <v>7504</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(D37:D41)</f>
+        <v>0.19991041757108716</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9582428912854395E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>266</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.1877293233082708</v>
+      </c>
+      <c r="E14">
+        <v>350</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <f>INT(AVERAGE(A42:A46))</f>
+        <v>9982</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(D42:D46)</f>
+        <v>0.2003799659784451</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7996597844508484E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>267</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0.18621722846441921</v>
-      </c>
-      <c r="E10">
-        <v>200</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>469</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>0.21321961620469079</v>
-      </c>
-      <c r="D11">
-        <v>0.21314712153518139</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>489</v>
-      </c>
-      <c r="B12">
-        <v>43</v>
-      </c>
-      <c r="C12">
-        <v>8.7934560327198361E-2</v>
-      </c>
-      <c r="D12">
-        <v>0.20403067484662571</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>529</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0.18884877126654079</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1186</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0.21056070826306891</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1211</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0.20632535094962839</v>
       </c>
       <c r="E15">
         <v>200</v>
       </c>
       <c r="F15">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1215</v>
+        <v>269</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.3168724279835391E-2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.20542880658436211</v>
+        <v>0.18424535315985141</v>
       </c>
       <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16">
         <v>50</v>
-      </c>
-      <c r="F16">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2424</v>
+        <v>469</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.21321961620469079</v>
       </c>
       <c r="D17">
-        <v>0.20621452145214519</v>
+        <v>0.21314712153518139</v>
       </c>
       <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
         <v>100</v>
-      </c>
-      <c r="F17">
-        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2471</v>
+        <v>489</v>
       </c>
       <c r="B18">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>7.8106029947389716E-2</v>
+        <v>8.7934560327198361E-2</v>
       </c>
       <c r="D18">
-        <v>0.20227114528530959</v>
+        <v>0.20403067484662571</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F18">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2509</v>
+        <v>509</v>
       </c>
       <c r="B19">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.38262255878836188</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.19922439218812271</v>
+        <v>0.19487033398821221</v>
       </c>
       <c r="E19">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F19">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4974</v>
+        <v>510</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -865,98 +1952,98 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.20103337354242071</v>
+        <v>0.19572156862745099</v>
       </c>
       <c r="E20">
+        <v>350</v>
+      </c>
+      <c r="F20">
         <v>100</v>
-      </c>
-      <c r="F20">
-        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>4998</v>
+        <v>529</v>
       </c>
       <c r="B21">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>3.5814325730292119E-2</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.20000840336134451</v>
+        <v>0.18884877126654079</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F21">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>5100</v>
+        <v>1186</v>
       </c>
       <c r="B22">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.18215686274509801</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.19607490196078431</v>
+        <v>0.21056070826306891</v>
       </c>
       <c r="E22">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>7391</v>
+        <v>1211</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1.528886483561088E-2</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.20294168583412259</v>
+        <v>0.20632535094962839</v>
       </c>
       <c r="E23">
         <v>200</v>
       </c>
       <c r="F23">
-        <v>1500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>7455</v>
+        <v>1215</v>
       </c>
       <c r="B24">
-        <v>3035</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>0.40710932260228028</v>
+        <v>1.3168724279835391E-2</v>
       </c>
       <c r="D24">
-        <v>0.20118417169684771</v>
+        <v>0.20542880658436211</v>
       </c>
       <c r="E24">
         <v>50</v>
       </c>
       <c r="F24">
-        <v>1500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>7530</v>
+        <v>1240</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -965,38 +2052,38 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1991925630810093</v>
+        <v>0.2015161290322581</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="F25">
-        <v>1500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9803</v>
+        <v>1244</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1.5301438335203509E-3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0.20401336325614611</v>
+        <v>0.20045337620578779</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F26">
-        <v>2000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9935</v>
+        <v>2424</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1005,39 +2092,400 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.20130558631102169</v>
+        <v>0.20621452145214519</v>
       </c>
       <c r="E27">
         <v>100</v>
       </c>
       <c r="F27">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>2471</v>
+      </c>
+      <c r="B28">
+        <v>193</v>
+      </c>
+      <c r="C28">
+        <v>7.8106029947389716E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.20227114528530959</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2503</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.19968597682780659</v>
+      </c>
+      <c r="E29">
+        <v>350</v>
+      </c>
+      <c r="F29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2504</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.19961381789137381</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="F30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2509</v>
+      </c>
+      <c r="B31">
+        <v>960</v>
+      </c>
+      <c r="C31">
+        <v>0.38262255878836188</v>
+      </c>
+      <c r="D31">
+        <v>0.19922439218812271</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4888</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.20445908346972169</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4974</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.20103337354242071</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4998</v>
+      </c>
+      <c r="B34">
+        <v>179</v>
+      </c>
+      <c r="C34">
+        <v>3.5814325730292119E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.20000840336134451</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5050</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.1980150495049505</v>
+      </c>
+      <c r="E35">
+        <v>350</v>
+      </c>
+      <c r="F35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5100</v>
+      </c>
+      <c r="B36">
+        <v>929</v>
+      </c>
+      <c r="C36">
+        <v>0.18215686274509801</v>
+      </c>
+      <c r="D36">
+        <v>0.19607490196078431</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="F36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7391</v>
+      </c>
+      <c r="B37">
+        <v>113</v>
+      </c>
+      <c r="C37">
+        <v>1.528886483561088E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.20294168583412259</v>
+      </c>
+      <c r="E37">
+        <v>200</v>
+      </c>
+      <c r="F37">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>7425</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.2020121212121212</v>
+      </c>
+      <c r="E38">
+        <v>350</v>
+      </c>
+      <c r="F38">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7455</v>
+      </c>
+      <c r="B39">
+        <v>3035</v>
+      </c>
+      <c r="C39">
+        <v>0.40710932260228028</v>
+      </c>
+      <c r="D39">
+        <v>0.20118417169684771</v>
+      </c>
+      <c r="E39">
+        <v>50</v>
+      </c>
+      <c r="F39">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7530</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0.1991925630810093</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7723</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0.19422154603133501</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+      <c r="F41">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9803</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>1.5301438335203509E-3</v>
+      </c>
+      <c r="D42">
+        <v>0.20401336325614611</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9909</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0.20181431022302959</v>
+      </c>
+      <c r="E43">
+        <v>350</v>
+      </c>
+      <c r="F43">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9935</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0.20130558631102169</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>9999</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0.200001400140014</v>
+      </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>10267</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>0.19476516996201421</v>
       </c>
-      <c r="E28">
+      <c r="E46">
         <v>200</v>
       </c>
-      <c r="F28">
+      <c r="F46">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>